--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_14.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_14.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9638844557708326</v>
+        <v>0.8337301302540517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7817367263258125</v>
+        <v>0.5806209704217682</v>
       </c>
       <c r="D2" t="n">
-        <v>0.718697683381996</v>
+        <v>0.7286194765622922</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8890775070063047</v>
+        <v>0.8574726299628599</v>
       </c>
       <c r="F2" t="n">
-        <v>0.150331917024552</v>
+        <v>0.3940916207199974</v>
       </c>
       <c r="G2" t="n">
-        <v>1.459527516069256</v>
+        <v>2.804389501852505</v>
       </c>
       <c r="H2" t="n">
-        <v>1.00620207569712</v>
+        <v>0.9707123967898239</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6462934311256554</v>
+        <v>0.464051973765972</v>
       </c>
       <c r="J2" t="n">
-        <v>1.564218905731179</v>
+        <v>1.15664942989799</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3877266008730276</v>
+        <v>0.627767170788659</v>
       </c>
       <c r="L2" t="n">
-        <v>3.311394830666714</v>
+        <v>0.7735899646012619</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3938329072523717</v>
+        <v>0.637653876191637</v>
       </c>
       <c r="N2" t="n">
-        <v>133.7898192986293</v>
+        <v>35.86234371363789</v>
       </c>
       <c r="O2" t="n">
-        <v>275.1249918418457</v>
+        <v>72.82692730186371</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.968029266333065</v>
+        <v>0.8333421930067841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7814120409924982</v>
+        <v>0.580171959818243</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7284324568636992</v>
+        <v>0.7280834967060965</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9042491809619975</v>
+        <v>0.8573893125263654</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1330790324059454</v>
+        <v>0.3950111067263734</v>
       </c>
       <c r="G3" t="n">
-        <v>1.461698688388167</v>
+        <v>2.807392037825782</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9713813554076659</v>
+        <v>0.9726295656575383</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5578951905875377</v>
+        <v>0.4643232453178451</v>
       </c>
       <c r="J3" t="n">
-        <v>1.473854300958477</v>
+        <v>1.157766901716255</v>
       </c>
       <c r="K3" t="n">
-        <v>0.364799989591482</v>
+        <v>0.6284990904737837</v>
       </c>
       <c r="L3" t="n">
-        <v>3.046126954683842</v>
+        <v>0.7730617096262593</v>
       </c>
       <c r="M3" t="n">
-        <v>0.370545224761345</v>
+        <v>0.6383973228801512</v>
       </c>
       <c r="N3" t="n">
-        <v>134.0336241972563</v>
+        <v>35.85768279236342</v>
       </c>
       <c r="O3" t="n">
-        <v>275.3687967404728</v>
+        <v>72.82226638058924</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9724046138195374</v>
+        <v>0.8329365452271018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7810595203184807</v>
+        <v>0.5797266403988279</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7391106202139504</v>
+        <v>0.7275186229093613</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9202539874588427</v>
+        <v>0.8573385569680132</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1148665316855842</v>
+        <v>0.3959725701062433</v>
       </c>
       <c r="G4" t="n">
-        <v>1.464055995758531</v>
+        <v>2.810369890833918</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9331861842593032</v>
+        <v>0.9746500864751955</v>
       </c>
       <c r="I4" t="n">
-        <v>0.464642676817078</v>
+        <v>0.4644884993110029</v>
       </c>
       <c r="J4" t="n">
-        <v>1.366936699036818</v>
+        <v>1.156747930701064</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3389196537316538</v>
+        <v>0.629263514043396</v>
       </c>
       <c r="L4" t="n">
-        <v>2.766104715549609</v>
+        <v>0.7725093381815855</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3442572994825691</v>
+        <v>0.6391737853568417</v>
       </c>
       <c r="N4" t="n">
-        <v>134.3279688373362</v>
+        <v>35.85282067507046</v>
       </c>
       <c r="O4" t="n">
-        <v>275.6631413805526</v>
+        <v>72.81740426329628</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.976042674021708</v>
+        <v>0.8325276634770029</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7805708344815887</v>
+        <v>0.579260563439379</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7482398249489584</v>
+        <v>0.7269711279382156</v>
       </c>
       <c r="E5" t="n">
-        <v>0.933630316387416</v>
+        <v>0.857231909085642</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0997230089693646</v>
+        <v>0.3969416986189768</v>
       </c>
       <c r="G5" t="n">
-        <v>1.467323840200019</v>
+        <v>2.81348654960784</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9005315482638838</v>
+        <v>0.976608444241401</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3867050711449403</v>
+        <v>0.464835731988484</v>
       </c>
       <c r="J5" t="n">
-        <v>1.264800900380644</v>
+        <v>1.158332078019066</v>
       </c>
       <c r="K5" t="n">
-        <v>0.315789501043598</v>
+        <v>0.6300330932728667</v>
       </c>
       <c r="L5" t="n">
-        <v>2.53326886261069</v>
+        <v>0.7719525630325146</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3207628700113463</v>
+        <v>0.6399554846898795</v>
       </c>
       <c r="N5" t="n">
-        <v>134.6107176932013</v>
+        <v>35.84793172788643</v>
       </c>
       <c r="O5" t="n">
-        <v>275.9458902364177</v>
+        <v>72.81251531611225</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9792814729289807</v>
+        <v>0.8321078211852342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7799876227490675</v>
+        <v>0.5787856670380406</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7569074853554922</v>
+        <v>0.7264175180014323</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9455904196649124</v>
+        <v>0.857113303648307</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08624142205216889</v>
+        <v>0.3979368057268536</v>
       </c>
       <c r="G6" t="n">
-        <v>1.471223779740831</v>
+        <v>2.816662184030287</v>
       </c>
       <c r="H6" t="n">
-        <v>0.869527829569539</v>
+        <v>0.9785886748851267</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3170191492438729</v>
+        <v>0.4652218970266823</v>
       </c>
       <c r="J6" t="n">
-        <v>1.164474649851241</v>
+        <v>1.16012466524763</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2936688986804168</v>
+        <v>0.630822325006696</v>
       </c>
       <c r="L6" t="n">
-        <v>2.325985732545234</v>
+        <v>0.7713808628905316</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2982938902734348</v>
+        <v>0.6407571460345743</v>
       </c>
       <c r="N6" t="n">
-        <v>134.9012093649684</v>
+        <v>35.84292413177057</v>
       </c>
       <c r="O6" t="n">
-        <v>276.2363819081848</v>
+        <v>72.80750771999638</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9826045621849275</v>
+        <v>0.8316763719113922</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7793057834894688</v>
+        <v>0.5783006957405973</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7666366862219167</v>
+        <v>0.7258590526952824</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9578635840818694</v>
+        <v>0.8569815593183205</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07240897430833225</v>
+        <v>0.3989594236181567</v>
       </c>
       <c r="G7" t="n">
-        <v>1.475783242009349</v>
+        <v>2.819905189329378</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8347270422018178</v>
+        <v>0.9805862729035456</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2455091666630153</v>
+        <v>0.4656508407190184</v>
       </c>
       <c r="J7" t="n">
-        <v>1.045443643557646</v>
+        <v>1.162215033554746</v>
       </c>
       <c r="K7" t="n">
-        <v>0.269089156801853</v>
+        <v>0.6316323484576741</v>
       </c>
       <c r="L7" t="n">
-        <v>2.113308020164638</v>
+        <v>0.7707933574963639</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2733270420310112</v>
+        <v>0.6415799265451789</v>
       </c>
       <c r="N7" t="n">
-        <v>135.2508500654744</v>
+        <v>35.83779112491234</v>
       </c>
       <c r="O7" t="n">
-        <v>276.5860226086908</v>
+        <v>72.80237471313816</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9848547430810851</v>
+        <v>0.8312302235507373</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7784717291172039</v>
+        <v>0.5778115916613523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7740276706560785</v>
+        <v>0.7252858052051909</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9663056085591748</v>
+        <v>0.8568528197133582</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06304253625537347</v>
+        <v>0.4000168811767675</v>
       </c>
       <c r="G8" t="n">
-        <v>1.481360567437151</v>
+        <v>2.823175830559406</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8082899194347217</v>
+        <v>0.9826367459368038</v>
       </c>
       <c r="I8" t="n">
-        <v>0.196321442714235</v>
+        <v>0.4660700013880817</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9383574872457556</v>
+        <v>1.163650861233874</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2510827279112872</v>
+        <v>0.6324688776349138</v>
       </c>
       <c r="L8" t="n">
-        <v>1.969296442810553</v>
+        <v>0.7701858363244082</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2550370298852441</v>
+        <v>0.6424296302207377</v>
       </c>
       <c r="N8" t="n">
-        <v>135.5278912035289</v>
+        <v>35.83249705964551</v>
       </c>
       <c r="O8" t="n">
-        <v>276.8630637467453</v>
+        <v>72.79708064787133</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9863708229499446</v>
+        <v>0.8307735839200244</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7774938541652987</v>
+        <v>0.5773095106568187</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7801855988896961</v>
+        <v>0.7247129421314287</v>
       </c>
       <c r="E9" t="n">
-        <v>0.972142945833898</v>
+        <v>0.8567015422596678</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05673181332671533</v>
+        <v>0.401099205066403</v>
       </c>
       <c r="G9" t="n">
-        <v>1.487899621743242</v>
+        <v>2.826533248548593</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7862633672002661</v>
+        <v>0.984685843935142</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1623100115419024</v>
+        <v>0.46656254258177</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8281377633433932</v>
+        <v>1.1659019902806</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2381844103351757</v>
+        <v>0.6333239337546016</v>
       </c>
       <c r="L9" t="n">
-        <v>1.872267331203545</v>
+        <v>0.7695640291676928</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2419355767008961</v>
+        <v>0.643298152619568</v>
       </c>
       <c r="N9" t="n">
-        <v>135.7388402879919</v>
+        <v>35.82709297618381</v>
       </c>
       <c r="O9" t="n">
-        <v>277.0740128312083</v>
+        <v>72.79167656440963</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9871756226637076</v>
+        <v>0.830304391368843</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7764148188356306</v>
+        <v>0.5767968944508426</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7853274786949697</v>
+        <v>0.724138821181763</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9754421708294682</v>
+        <v>0.8565362526757094</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05338181303257364</v>
+        <v>0.4022112817956824</v>
       </c>
       <c r="G10" t="n">
-        <v>1.495115135961233</v>
+        <v>2.829961115478335</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7678711612801239</v>
+        <v>0.9867394412826507</v>
       </c>
       <c r="I10" t="n">
-        <v>0.14308697223856</v>
+        <v>0.467100705586243</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7197736842360567</v>
+        <v>1.168540923027704</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2310450454620779</v>
+        <v>0.634201294381904</v>
       </c>
       <c r="L10" t="n">
-        <v>1.820760149522712</v>
+        <v>0.7689251286724671</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2346837739677936</v>
+        <v>0.6441893307997115</v>
       </c>
       <c r="N10" t="n">
-        <v>135.8605703418817</v>
+        <v>35.8215555036479</v>
       </c>
       <c r="O10" t="n">
-        <v>277.1957428850981</v>
+        <v>72.78613909187372</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9872499488751922</v>
+        <v>0.8225087496812042</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7751171326743437</v>
+        <v>0.5686609919112753</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7897251454088453</v>
+        <v>0.7168340814954237</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9761473429895355</v>
+        <v>0.8527767986190402</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05307242819299418</v>
+        <v>0.42068845431003</v>
       </c>
       <c r="G11" t="n">
-        <v>1.503792769297054</v>
+        <v>2.884365933222809</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7521409624359574</v>
+        <v>1.012868071587544</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1389782642338619</v>
+        <v>0.4793410358107132</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6031804950223578</v>
+        <v>1.248656747617964</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2303745389425537</v>
+        <v>0.6486050063868071</v>
       </c>
       <c r="L11" t="n">
-        <v>1.816003271987697</v>
+        <v>0.7583097867999377</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2340027076408475</v>
+        <v>0.6588198868702623</v>
       </c>
       <c r="N11" t="n">
-        <v>135.8721954573148</v>
+        <v>35.73172546552056</v>
       </c>
       <c r="O11" t="n">
-        <v>277.2073680005312</v>
+        <v>72.69630905374639</v>
       </c>
     </row>
   </sheetData>
